--- a/code/work/1.xlsx
+++ b/code/work/1.xlsx
@@ -374,7 +374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" topLeftCell="D1" xSplit="3" state="frozen"/>
@@ -401,7 +401,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>412</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>569</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>606</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>1114</v>
+        <v>831</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>1367</v>
+        <v>1043</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>1680</v>
+        <v>1121</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>4677273</v>
+        <v>1212</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>4975251</v>
+        <v>1258</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>5061868</v>
+        <v>1399</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>5065885</v>
+        <v>1487</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>5103070</v>
+        <v>1700</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>5213801</v>
+        <v>2207</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>5250783</v>
+        <v>2217</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>5255834</v>
+        <v>4621592</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>5409929</v>
+        <v>4629117</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>5415970</v>
+        <v>4635776</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>1474</v>
+        <v>4636475</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>4615226</v>
+        <v>4637203</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>4620897</v>
+        <v>4672075</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>4755658</v>
+        <v>4673460</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>4801645</v>
+        <v>4689679</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>4878098</v>
+        <v>4692218</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>4910544</v>
+        <v>4696622</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>5163100</v>
+        <v>4723814</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>5190357</v>
+        <v>4763079</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>5191676</v>
+        <v>4772790</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>5239516</v>
+        <v>4812748</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>5367463</v>
+        <v>4822907</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>5385334</v>
+        <v>4829948</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>5411882</v>
+        <v>4834372</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>5415020</v>
+        <v>4842758</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>279</v>
+        <v>4907371</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>849</v>
+        <v>4907664</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>4818798</v>
+        <v>4909540</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>4936983</v>
+        <v>4912354</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>5017834</v>
+        <v>4921460</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>5116630</v>
+        <v>4946669</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>5145071</v>
+        <v>4954929</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>5157065</v>
+        <v>4965220</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>5160168</v>
+        <v>4966995</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>5165147</v>
+        <v>4984248</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>5179236</v>
+        <v>4986067</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>5254098</v>
+        <v>4990156</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>5292778</v>
+        <v>4990158</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>5301925</v>
+        <v>4991137</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>5358402</v>
+        <v>4992729</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>5366939</v>
+        <v>4994494</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>924</v>
+        <v>4994701</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>1733</v>
+        <v>4999445</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>4675197</v>
+        <v>4999549</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>4829178</v>
+        <v>5004450</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>4835261</v>
+        <v>5014213</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>4936303</v>
+        <v>5014761</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>5069613</v>
+        <v>5025559</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>5091116</v>
+        <v>5026057</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>5249283</v>
+        <v>5027598</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>5252707</v>
+        <v>5034008</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>5254435</v>
+        <v>5052914</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>5340816</v>
+        <v>5053294</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>5354328</v>
+        <v>5061344</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>5392121</v>
+        <v>5062596</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>432</v>
+        <v>5065433</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>4945585</v>
+        <v>5066491</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>4761764</v>
+        <v>5066628</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>4819515</v>
+        <v>5067113</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>4856193</v>
+        <v>5072775</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>5034009</v>
+        <v>5073329</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>5105075</v>
+        <v>5093395</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>5161565</v>
+        <v>5096351</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>5190250</v>
+        <v>5104105</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>5219688</v>
+        <v>5104170</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>5236646</v>
+        <v>5106418</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>5326571</v>
+        <v>5112576</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>5373906</v>
+        <v>5116331</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>5374149</v>
+        <v>5116335</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>5379198</v>
+        <v>5116421</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>5389622</v>
+        <v>5118561</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>5405898</v>
+        <v>5139925</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>5410418</v>
+        <v>5142231</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>279</v>
+        <v>5144748</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>297</v>
+        <v>5148283</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>412</v>
+        <v>5150585</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>432</v>
+        <v>5151823</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>450</v>
+        <v>5158319</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>569</v>
+        <v>5158755</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>606</v>
+        <v>5160272</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>607</v>
+        <v>5161265</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>670</v>
+        <v>5162210</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>776</v>
+        <v>5163096</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>879</v>
+        <v>5163098</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>924</v>
+        <v>5165335</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>975</v>
+        <v>5165338</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>1024</v>
+        <v>5165706</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>1063</v>
+        <v>5169427</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>1069</v>
+        <v>5169508</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>1114</v>
+        <v>5173953</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>1119</v>
+        <v>5174842</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>1256</v>
+        <v>5179053</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>1367</v>
+        <v>5180666</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>1474</v>
+        <v>5186628</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>1680</v>
+        <v>5190255</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>1733</v>
+        <v>5191025</v>
       </c>
       <c r="B103" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>2036</v>
+        <v>5191770</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>4615226</v>
+        <v>5196113</v>
       </c>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>4620897</v>
+        <v>5196201</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>4621400</v>
+        <v>5199439</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -1567,10 +1567,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>4675197</v>
+        <v>5210543</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>4677273</v>
+        <v>5220156</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>4685783</v>
+        <v>5223177</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>4695831</v>
+        <v>5225844</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>4703495</v>
+        <v>5230936</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>4708020</v>
+        <v>5231226</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>4755658</v>
+        <v>5231940</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>4758081</v>
+        <v>5231941</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>4760815</v>
+        <v>5232821</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>4761764</v>
+        <v>5235485</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>4801645</v>
+        <v>5235720</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>4812160</v>
+        <v>5239813</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>4818798</v>
+        <v>5240321</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="n">
-        <v>4819515</v>
+        <v>5241318</v>
       </c>
       <c r="B121" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="n">
-        <v>4822701</v>
+        <v>5250663</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="n">
-        <v>4829178</v>
+        <v>5252070</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="n">
-        <v>4835261</v>
+        <v>5254831</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="n">
-        <v>4857120</v>
+        <v>5254872</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="n">
-        <v>4859700</v>
+        <v>5256797</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="n">
-        <v>4878098</v>
+        <v>5257448</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="n">
-        <v>4890151</v>
+        <v>5257545</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="n">
-        <v>4910544</v>
+        <v>5261224</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="n">
-        <v>4921105</v>
+        <v>5264820</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="n">
-        <v>4926026</v>
+        <v>5265153</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="n">
-        <v>4936303</v>
+        <v>5265159</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="n">
-        <v>4936983</v>
+        <v>5265482</v>
       </c>
       <c r="B133" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="n">
-        <v>4937468</v>
+        <v>5266209</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="n">
-        <v>4939249</v>
+        <v>5266699</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="n">
-        <v>4945585</v>
+        <v>5266786</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="n">
-        <v>4955946</v>
+        <v>5267193</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="n">
-        <v>4962430</v>
+        <v>5280064</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="n">
-        <v>4971098</v>
+        <v>5290891</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="n">
-        <v>4975251</v>
+        <v>5291876</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="n">
-        <v>4977835</v>
+        <v>5292357</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="n">
-        <v>4977836</v>
+        <v>5298274</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="n">
-        <v>4996660</v>
+        <v>5299773</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="n">
-        <v>4999444</v>
+        <v>5302012</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="n">
-        <v>5004442</v>
+        <v>5307579</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="n">
-        <v>5017834</v>
+        <v>5308600</v>
       </c>
       <c r="B146" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="n">
-        <v>5023176</v>
+        <v>5309636</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="n">
-        <v>5024158</v>
+        <v>5317768</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="n">
-        <v>5024427</v>
+        <v>5320984</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="n">
-        <v>5026738</v>
+        <v>5322931</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="n">
-        <v>5027183</v>
+        <v>5324302</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="n">
-        <v>5033098</v>
+        <v>5326422</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="n">
-        <v>5034009</v>
+        <v>5330235</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="n">
-        <v>5037073</v>
+        <v>5332745</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="n">
-        <v>5038865</v>
+        <v>5337711</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="n">
-        <v>5038934</v>
+        <v>5339737</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="n">
-        <v>5061868</v>
+        <v>5340339</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="n">
-        <v>5064218</v>
+        <v>5341058</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="n">
-        <v>5065885</v>
+        <v>5341980</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="n">
-        <v>5076217</v>
+        <v>5344796</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="n">
-        <v>5081461</v>
+        <v>5346116</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="n">
-        <v>5087354</v>
+        <v>5346457</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="n">
-        <v>5091116</v>
+        <v>5347851</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="n">
-        <v>5099483</v>
+        <v>5347852</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="n">
-        <v>5099485</v>
+        <v>5347950</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="n">
-        <v>5103070</v>
+        <v>5351333</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="n">
-        <v>5114743</v>
+        <v>5351663</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="n">
-        <v>5116082</v>
+        <v>5352662</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="n">
-        <v>5116630</v>
+        <v>5354014</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="n">
-        <v>5125098</v>
+        <v>5354580</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="n">
-        <v>5126301</v>
+        <v>5356335</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="n">
-        <v>5129207</v>
+        <v>5358400</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="n">
-        <v>5144631</v>
+        <v>5359446</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="n">
-        <v>5145071</v>
+        <v>5360012</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="n">
-        <v>5145254</v>
+        <v>5363983</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="n">
-        <v>5145255</v>
+        <v>5368356</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="n">
-        <v>5145432</v>
+        <v>5373077</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="n">
-        <v>5150598</v>
+        <v>5377047</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="n">
-        <v>5153172</v>
+        <v>5399965</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="n">
-        <v>5156869</v>
+        <v>5399966</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="n">
-        <v>5157065</v>
+        <v>5400915</v>
       </c>
       <c r="B181" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="n">
-        <v>5160168</v>
+        <v>5402039</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="n">
-        <v>5164106</v>
+        <v>5405454</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="n">
-        <v>5164108</v>
+        <v>5411105</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="n">
-        <v>5165147</v>
+        <v>5416792</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="n">
-        <v>5166436</v>
+        <v>5425708</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="n">
-        <v>5169670</v>
+        <v>5038229</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="n">
-        <v>5170110</v>
+        <v>5180665</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="n">
-        <v>5177831</v>
+        <v>1665</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="n">
-        <v>5178314</v>
+        <v>1967</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="n">
-        <v>5179236</v>
+        <v>2170</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="n">
-        <v>5181630</v>
+        <v>4577013</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="n">
-        <v>5190250</v>
+        <v>4685783</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="n">
-        <v>5190353</v>
+        <v>4842757</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="n">
-        <v>5190354</v>
+        <v>4842758</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="n">
-        <v>5190357</v>
+        <v>4859649</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="n">
-        <v>5191676</v>
+        <v>4878098</v>
       </c>
       <c r="B197" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="n">
-        <v>5194591</v>
+        <v>4890151</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="n">
-        <v>5196561</v>
+        <v>5021024</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="n">
-        <v>5208605</v>
+        <v>5026326</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="n">
-        <v>5213801</v>
+        <v>5026515</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="n">
-        <v>5219688</v>
+        <v>5033098</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="n">
-        <v>5232498</v>
+        <v>5036464</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="n">
-        <v>5236646</v>
+        <v>5092063</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="n">
-        <v>5237206</v>
+        <v>5150085</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="n">
-        <v>5239516</v>
+        <v>5166132</v>
       </c>
       <c r="B206" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="n">
-        <v>5239806</v>
+        <v>5192733</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="n">
-        <v>5242561</v>
+        <v>5198095</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="n">
-        <v>5248807</v>
+        <v>5230771</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="n">
-        <v>5249283</v>
+        <v>5248677</v>
       </c>
       <c r="B210" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="n">
-        <v>5250783</v>
+        <v>5248807</v>
       </c>
       <c r="B211" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="n">
-        <v>5252069</v>
+        <v>5250666</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="n">
-        <v>5252707</v>
+        <v>5254700</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="n">
-        <v>5254098</v>
+        <v>5265844</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="n">
-        <v>5254435</v>
+        <v>5319215</v>
       </c>
       <c r="B215" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="n">
-        <v>5254700</v>
+        <v>5353013</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="n">
-        <v>5254776</v>
+        <v>5358405</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="n">
-        <v>5255834</v>
+        <v>5419735</v>
       </c>
       <c r="B218" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="n">
-        <v>5257054</v>
+        <v>5424045</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="n">
-        <v>5257449</v>
+        <v>5425708</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="n">
-        <v>5259828</v>
+        <v>5430644</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="n">
-        <v>5260535</v>
+        <v>5440999</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="n">
-        <v>5260621</v>
+        <v>5453599</v>
       </c>
       <c r="B223" t="s">
         <v>3</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="n">
-        <v>5261751</v>
+        <v>5103525</v>
       </c>
       <c r="B224" t="s">
         <v>3</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="n">
-        <v>5262096</v>
+        <v>5103528</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="n">
-        <v>5269363</v>
+        <v>5103626</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="n">
-        <v>5274328</v>
+        <v>5247236</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -2887,628 +2887,12 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="n">
-        <v>5275956</v>
+        <v>5324477</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="n">
-        <v>5277950</v>
-      </c>
-      <c r="B229" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="n">
-        <v>5277952</v>
-      </c>
-      <c r="B230" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="n">
-        <v>5277954</v>
-      </c>
-      <c r="B231" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="n">
-        <v>5289770</v>
-      </c>
-      <c r="B232" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="n">
-        <v>5290838</v>
-      </c>
-      <c r="B233" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="n">
-        <v>5292778</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="n">
-        <v>5297738</v>
-      </c>
-      <c r="B235" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="n">
-        <v>5301925</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="n">
-        <v>5302486</v>
-      </c>
-      <c r="B237" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="n">
-        <v>5316812</v>
-      </c>
-      <c r="B238" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="n">
-        <v>5323507</v>
-      </c>
-      <c r="B239" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="n">
-        <v>5328643</v>
-      </c>
-      <c r="B240" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="n">
-        <v>5331111</v>
-      </c>
-      <c r="B241" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="n">
-        <v>5338384</v>
-      </c>
-      <c r="B242" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="n">
-        <v>5339107</v>
-      </c>
-      <c r="B243" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="n">
-        <v>5340586</v>
-      </c>
-      <c r="B244" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="n">
-        <v>5340816</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="n">
-        <v>5345206</v>
-      </c>
-      <c r="B246" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="n">
-        <v>5349380</v>
-      </c>
-      <c r="B247" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="n">
-        <v>5354328</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="n">
-        <v>5358402</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="n">
-        <v>5363196</v>
-      </c>
-      <c r="B250" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="n">
-        <v>5366939</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="n">
-        <v>5367463</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="n">
-        <v>5368586</v>
-      </c>
-      <c r="B253" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="n">
-        <v>5370282</v>
-      </c>
-      <c r="B254" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="n">
-        <v>5373559</v>
-      </c>
-      <c r="B255" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="n">
-        <v>5373906</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="n">
-        <v>5374149</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="n">
-        <v>5374549</v>
-      </c>
-      <c r="B258" t="s">
-        <v>3</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="n">
-        <v>5376779</v>
-      </c>
-      <c r="B259" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="n">
-        <v>5378466</v>
-      </c>
-      <c r="B260" t="s">
-        <v>3</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="n">
-        <v>5379352</v>
-      </c>
-      <c r="B261" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="n">
-        <v>5380843</v>
-      </c>
-      <c r="B262" t="s">
-        <v>3</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="n">
-        <v>5383983</v>
-      </c>
-      <c r="B263" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="n">
-        <v>5385248</v>
-      </c>
-      <c r="B264" t="s">
-        <v>3</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="n">
-        <v>5385332</v>
-      </c>
-      <c r="B265" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="n">
-        <v>5385334</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="n">
-        <v>5387650</v>
-      </c>
-      <c r="B267" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="n">
-        <v>5389622</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="n">
-        <v>5391358</v>
-      </c>
-      <c r="B269" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="n">
-        <v>5392121</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="n">
-        <v>5392122</v>
-      </c>
-      <c r="B271" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="n">
-        <v>5392222</v>
-      </c>
-      <c r="B272" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="n">
-        <v>5405898</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="n">
-        <v>5406438</v>
-      </c>
-      <c r="B274" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="n">
-        <v>5409814</v>
-      </c>
-      <c r="B275" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="n">
-        <v>5411880</v>
-      </c>
-      <c r="B276" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" t="n">
-        <v>5411882</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="n">
-        <v>5414857</v>
-      </c>
-      <c r="B278" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="n">
-        <v>5415020</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" t="n">
-        <v>5415970</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" t="n">
-        <v>4629660</v>
-      </c>
-      <c r="B281" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" t="n">
-        <v>4939328</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="n">
-        <v>4948459</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="n">
-        <v>5274590</v>
-      </c>
-      <c r="B284" t="s">
-        <v>3</v>
-      </c>
-      <c r="C284" t="s">
         <v>1</v>
       </c>
     </row>
